--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beacon\Beacon\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE061E2-4A48-425E-8795-D31F2932F912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0E5F147D-B126-440D-8056-81DF5E45A8A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="4335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="2760" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BorrowerTab" sheetId="11" r:id="rId1"/>
-    <sheet name="AccountsTab" sheetId="12" r:id="rId2"/>
+    <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
+    <sheet name="KSIDC_Business_Information" sheetId="12" r:id="rId2"/>
+    <sheet name="KSIDC_Basic_Information" sheetId="13" r:id="rId3"/>
+    <sheet name="KSIDC_Tentative_Project_Cost" sheetId="14" r:id="rId4"/>
+    <sheet name="KSIDC_Existing_Liability" sheetId="15" r:id="rId5"/>
+    <sheet name="KSIDC_Project_Details" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t>Yes</t>
   </si>
@@ -37,98 +37,470 @@
     <t>TestScenario</t>
   </si>
   <si>
-    <t>Search Name</t>
-  </si>
-  <si>
-    <t>CIF ID</t>
-  </si>
-  <si>
-    <t>Search Value</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Office Address</t>
-  </si>
-  <si>
-    <t>Comm Address</t>
-  </si>
-  <si>
-    <t>Per Address</t>
-  </si>
-  <si>
-    <t>Sec Address</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>Account No</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Gurantor Name</t>
-  </si>
-  <si>
-    <t>Test3455</t>
-  </si>
-  <si>
-    <t>Commu Address</t>
-  </si>
-  <si>
-    <t>Perm Address</t>
-  </si>
-  <si>
-    <t>Secu Address</t>
-  </si>
-  <si>
-    <t>LLLL JHJDHJH jhsjdhfj</t>
-  </si>
-  <si>
-    <t>01007650000019</t>
-  </si>
-  <si>
-    <t>Sanction Disb Amt</t>
-  </si>
-  <si>
-    <t>Disb Year</t>
-  </si>
-  <si>
-    <t>Disb Month</t>
-  </si>
-  <si>
-    <t>Disb Day</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>TC_ProcessSheet_BorrowerTab</t>
-  </si>
-  <si>
-    <t>TC_ProcessSheet_AccountsTab</t>
-  </si>
-  <si>
-    <t>Ac Sanction Ref No</t>
+    <t>Register_Page_Module</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>VerificationCode</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>CompanyPAN</t>
+  </si>
+  <si>
+    <t>ChiefPromoterFullName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>KSIDC.15@gmail.com</t>
+  </si>
+  <si>
+    <t>KSIDCcp@123#</t>
+  </si>
+  <si>
+    <t>Business_Information_Module</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>KSIDC_CP</t>
+  </si>
+  <si>
+    <t>1,00,00,000.00</t>
+  </si>
+  <si>
+    <t>DocketAmount</t>
+  </si>
+  <si>
+    <t>LoanAmountRequired</t>
+  </si>
+  <si>
+    <t>5,00,00,000.00</t>
+  </si>
+  <si>
+    <t>GFDYR676</t>
+  </si>
+  <si>
+    <t>ProductServiceName</t>
+  </si>
+  <si>
+    <t>BreakEvenPeriod</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ProjectImplementationPeriodInMonths</t>
+  </si>
+  <si>
+    <t>ApproxTotalLabourCount</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>HFIIK38743874</t>
+  </si>
+  <si>
+    <t>DocketNumber</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
+  </si>
+  <si>
+    <t>TreasuryReleaseDate</t>
+  </si>
+  <si>
+    <t>DWE34DF33333</t>
+  </si>
+  <si>
+    <t>ProductionCapacityQuantityPerAnnumTest</t>
+  </si>
+  <si>
+    <t>Basic_Information_Module</t>
+  </si>
+  <si>
+    <t>UdyamNoUdyogAadhaar</t>
+  </si>
+  <si>
+    <t>UDYAM-MH-19-0044030</t>
+  </si>
+  <si>
+    <t>9876543213</t>
+  </si>
+  <si>
+    <t>InstitutionMobile</t>
+  </si>
+  <si>
+    <t>01234567899</t>
+  </si>
+  <si>
+    <t>LandlineNumberTest</t>
+  </si>
+  <si>
+    <t>WebsiteTest</t>
+  </si>
+  <si>
+    <t>CustomerPortal123</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>ExternalCreditRating</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>GSTIN</t>
+  </si>
+  <si>
+    <t>L17110MH1973PLC019786</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>L17110MH197</t>
+  </si>
+  <si>
+    <t>PDES03028F</t>
+  </si>
+  <si>
+    <t>22AAAAA0000A1Z5</t>
+  </si>
+  <si>
+    <t>ShareHoldingByIndividuals</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CKYCID</t>
+  </si>
+  <si>
+    <t>12345678912345</t>
+  </si>
+  <si>
+    <t>DPIITNumber</t>
+  </si>
+  <si>
+    <t>D4565</t>
+  </si>
+  <si>
+    <t>KSUMNumber</t>
+  </si>
+  <si>
+    <t>ABCD1234</t>
+  </si>
+  <si>
+    <t>IFSCCODE</t>
+  </si>
+  <si>
+    <t>SBIN0070576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0110040500000013 </t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Tentative_project_cost_Module</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>324545</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>665655</t>
+  </si>
+  <si>
+    <t>PreliminaryExpenses</t>
+  </si>
+  <si>
+    <t>43534534</t>
+  </si>
+  <si>
+    <t>WorkingCapitalMargin</t>
+  </si>
+  <si>
+    <t>426347</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>327352</t>
+  </si>
+  <si>
+    <t>MarketingAndPromotionalExpenses</t>
+  </si>
+  <si>
+    <t>324234234</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>334344</t>
+  </si>
+  <si>
+    <t>Specify</t>
+  </si>
+  <si>
+    <t>XD324R322332</t>
+  </si>
+  <si>
+    <t>31231312</t>
+  </si>
+  <si>
+    <t>LandDevelopment</t>
+  </si>
+  <si>
+    <t>234324</t>
+  </si>
+  <si>
+    <t>BuildingCivilWorks</t>
+  </si>
+  <si>
+    <t>4343535</t>
+  </si>
+  <si>
+    <t>MiscFixedAssets</t>
+  </si>
+  <si>
+    <t>5466575</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>654656</t>
+  </si>
+  <si>
+    <t>WorkingCapitalAmt</t>
+  </si>
+  <si>
+    <t>243435</t>
+  </si>
+  <si>
+    <t>TechnicalKnowHowFees</t>
+  </si>
+  <si>
+    <t>3232323</t>
+  </si>
+  <si>
+    <t>TechnologyOptimizationAndProductDevelopment</t>
+  </si>
+  <si>
+    <t>334343434</t>
+  </si>
+  <si>
+    <t>TestingAndCertification</t>
+  </si>
+  <si>
+    <t>987654567</t>
+  </si>
+  <si>
+    <t>PlantMachinery</t>
+  </si>
+  <si>
+    <t>Existing_Liability_Module</t>
+  </si>
+  <si>
+    <t>GuaranteeCompanyNameTest</t>
+  </si>
+  <si>
+    <t>GuaranteeCompanyPanTest</t>
+  </si>
+  <si>
+    <t>OUGRY6767RE</t>
+  </si>
+  <si>
+    <t>IFSCCodeTest</t>
+  </si>
+  <si>
+    <t>SBIN0070939</t>
+  </si>
+  <si>
+    <t>SanctionAmount</t>
+  </si>
+  <si>
+    <t>34567</t>
+  </si>
+  <si>
+    <t>OutstandingBalance</t>
+  </si>
+  <si>
+    <t>345678</t>
+  </si>
+  <si>
+    <t>LoanArrears</t>
+  </si>
+  <si>
+    <t>99664</t>
+  </si>
+  <si>
+    <t>BJH7UY643R</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Project_Details_Module</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>BSH3476</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>DU3279DWDD</t>
+  </si>
+  <si>
+    <t>UnitAge</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Street 12B</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Apt 34C</t>
+  </si>
+  <si>
+    <t>Near Park</t>
+  </si>
+  <si>
+    <t>PinCode</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Kannur Village</t>
+  </si>
+  <si>
+    <t>ProjectDescription</t>
+  </si>
+  <si>
+    <t>ETWE656</t>
+  </si>
+  <si>
+    <t>InnovationOrIdeaForProduct</t>
+  </si>
+  <si>
+    <t>SHA436JD</t>
+  </si>
+  <si>
+    <t>TechnologyOrProvenConcept</t>
+  </si>
+  <si>
+    <t>BJH7Y6UE4</t>
+  </si>
+  <si>
+    <t>AddressableOrserviceableMarket</t>
+  </si>
+  <si>
+    <t>CXDZXS22</t>
+  </si>
+  <si>
+    <t>ReachOutStrategies</t>
+  </si>
+  <si>
+    <t>BXNZFYEG</t>
+  </si>
+  <si>
+    <t>ProposedRevenueModelPricing</t>
+  </si>
+  <si>
+    <t>CVSHSJD</t>
+  </si>
+  <si>
+    <t>CurrentStatusOfProject</t>
+  </si>
+  <si>
+    <t>SDFGH</t>
+  </si>
+  <si>
+    <t>MarketAndFutureProfitability</t>
+  </si>
+  <si>
+    <t>ERTGHNBG</t>
+  </si>
+  <si>
+    <t>ExitOptionsForLender</t>
+  </si>
+  <si>
+    <t>SETWYS32323</t>
+  </si>
+  <si>
+    <t>ProductOrServicesOrRawmeterialsOfTheProject</t>
+  </si>
+  <si>
+    <t>JFHVGUY875643875</t>
+  </si>
+  <si>
+    <t>KSIDC.11@gmail.com</t>
+  </si>
+  <si>
+    <t>ABC54R34QW4334</t>
+  </si>
+  <si>
+    <t>HUYTG5656R</t>
+  </si>
+  <si>
+    <t>KSIDCcp@1234#</t>
+  </si>
+  <si>
+    <t>sanoopsanoop@gmail.com</t>
+  </si>
+  <si>
+    <t>S@noopGopinatH@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +512,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +562,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -204,8 +596,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,28 +897,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="5" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="18" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -522,99 +938,182 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9954327851</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="shrilesha@gmail.com" xr:uid="{9EE0371A-B998-4EC4-9706-035CDFE5088D}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{1736B980-6722-44C1-94F3-29D1BBEE6077}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{B9992E4D-8103-4190-87F0-3AA2484FFE25}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>30881172</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="3">
-        <v>345002</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="3">
-        <v>45678888</v>
+      <c r="N2" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -622,24 +1121,188 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787BD8A-F5EF-4C74-BC86-E84355DABC17}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F39C5-70E7-4C54-AA28-EBEFD8F5C6A1}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,43 +1310,397 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45678888</v>
-      </c>
-      <c r="D2" s="3">
-        <v>340000</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{61D42DDF-4134-4436-A550-C494A349DC44}"/>
+    <hyperlink ref="D2" r:id="rId2" display="S@noop" xr:uid="{C52770D3-C323-4CCD-9A22-456DCBDFBBFE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E293321F-B061-4F7A-B202-F3CBF5A4C696}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD2387F-1FF1-4CEF-8161-5D26F4934D72}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0E5F147D-B126-440D-8056-81DF5E45A8A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98074E0-45C1-460C-BB62-882A1901C0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="2760" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -14,9 +19,10 @@
     <sheet name="KSIDC_Tentative_Project_Cost" sheetId="14" r:id="rId4"/>
     <sheet name="KSIDC_Existing_Liability" sheetId="15" r:id="rId5"/>
     <sheet name="KSIDC_Project_Details" sheetId="16" r:id="rId6"/>
+    <sheet name="KSIDC_Document_Upload" sheetId="17" r:id="rId7"/>
+    <sheet name="KSIDC_Entrepreneur_Details" sheetId="18" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="205">
   <si>
     <t>Yes</t>
   </si>
@@ -61,439 +67,586 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
+    <t>Business_Information_Module</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>KSIDC_CP</t>
+  </si>
+  <si>
+    <t>1,00,00,000.00</t>
+  </si>
+  <si>
+    <t>DocketAmount</t>
+  </si>
+  <si>
+    <t>LoanAmountRequired</t>
+  </si>
+  <si>
+    <t>5,00,00,000.00</t>
+  </si>
+  <si>
+    <t>GFDYR676</t>
+  </si>
+  <si>
+    <t>ProductServiceName</t>
+  </si>
+  <si>
+    <t>BreakEvenPeriod</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ProjectImplementationPeriodInMonths</t>
+  </si>
+  <si>
+    <t>ApproxTotalLabourCount</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>HFIIK38743874</t>
+  </si>
+  <si>
+    <t>DocketNumber</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
+  </si>
+  <si>
+    <t>TreasuryReleaseDate</t>
+  </si>
+  <si>
+    <t>DWE34DF33333</t>
+  </si>
+  <si>
+    <t>ProductionCapacityQuantityPerAnnumTest</t>
+  </si>
+  <si>
+    <t>Basic_Information_Module</t>
+  </si>
+  <si>
+    <t>UdyamNoUdyogAadhaar</t>
+  </si>
+  <si>
+    <t>UDYAM-MH-19-0044030</t>
+  </si>
+  <si>
+    <t>9876543213</t>
+  </si>
+  <si>
+    <t>InstitutionMobile</t>
+  </si>
+  <si>
+    <t>01234567899</t>
+  </si>
+  <si>
+    <t>LandlineNumberTest</t>
+  </si>
+  <si>
+    <t>WebsiteTest</t>
+  </si>
+  <si>
+    <t>CustomerPortal123</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>ExternalCreditRating</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>GSTIN</t>
+  </si>
+  <si>
+    <t>L17110MH1973PLC019786</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>L17110MH197</t>
+  </si>
+  <si>
+    <t>PDES03028F</t>
+  </si>
+  <si>
+    <t>22AAAAA0000A1Z5</t>
+  </si>
+  <si>
+    <t>ShareHoldingByIndividuals</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CKYCID</t>
+  </si>
+  <si>
+    <t>12345678912345</t>
+  </si>
+  <si>
+    <t>DPIITNumber</t>
+  </si>
+  <si>
+    <t>D4565</t>
+  </si>
+  <si>
+    <t>KSUMNumber</t>
+  </si>
+  <si>
+    <t>ABCD1234</t>
+  </si>
+  <si>
+    <t>IFSCCODE</t>
+  </si>
+  <si>
+    <t>SBIN0070576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0110040500000013 </t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Tentative_project_cost_Module</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>324545</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>665655</t>
+  </si>
+  <si>
+    <t>PreliminaryExpenses</t>
+  </si>
+  <si>
+    <t>43534534</t>
+  </si>
+  <si>
+    <t>WorkingCapitalMargin</t>
+  </si>
+  <si>
+    <t>426347</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>327352</t>
+  </si>
+  <si>
+    <t>MarketingAndPromotionalExpenses</t>
+  </si>
+  <si>
+    <t>324234234</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>334344</t>
+  </si>
+  <si>
+    <t>Specify</t>
+  </si>
+  <si>
+    <t>XD324R322332</t>
+  </si>
+  <si>
+    <t>31231312</t>
+  </si>
+  <si>
+    <t>LandDevelopment</t>
+  </si>
+  <si>
+    <t>234324</t>
+  </si>
+  <si>
+    <t>BuildingCivilWorks</t>
+  </si>
+  <si>
+    <t>4343535</t>
+  </si>
+  <si>
+    <t>MiscFixedAssets</t>
+  </si>
+  <si>
+    <t>5466575</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>654656</t>
+  </si>
+  <si>
+    <t>WorkingCapitalAmt</t>
+  </si>
+  <si>
+    <t>243435</t>
+  </si>
+  <si>
+    <t>TechnicalKnowHowFees</t>
+  </si>
+  <si>
+    <t>3232323</t>
+  </si>
+  <si>
+    <t>TechnologyOptimizationAndProductDevelopment</t>
+  </si>
+  <si>
+    <t>334343434</t>
+  </si>
+  <si>
+    <t>TestingAndCertification</t>
+  </si>
+  <si>
+    <t>987654567</t>
+  </si>
+  <si>
+    <t>PlantMachinery</t>
+  </si>
+  <si>
+    <t>Existing_Liability_Module</t>
+  </si>
+  <si>
+    <t>GuaranteeCompanyNameTest</t>
+  </si>
+  <si>
+    <t>GuaranteeCompanyPanTest</t>
+  </si>
+  <si>
+    <t>OUGRY6767RE</t>
+  </si>
+  <si>
+    <t>IFSCCodeTest</t>
+  </si>
+  <si>
+    <t>SBIN0070939</t>
+  </si>
+  <si>
+    <t>SanctionAmount</t>
+  </si>
+  <si>
+    <t>34567</t>
+  </si>
+  <si>
+    <t>OutstandingBalance</t>
+  </si>
+  <si>
+    <t>345678</t>
+  </si>
+  <si>
+    <t>LoanArrears</t>
+  </si>
+  <si>
+    <t>99664</t>
+  </si>
+  <si>
+    <t>BJH7UY643R</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Project_Details_Module</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>BSH3476</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>DU3279DWDD</t>
+  </si>
+  <si>
+    <t>UnitAge</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Street 12B</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Apt 34C</t>
+  </si>
+  <si>
+    <t>Near Park</t>
+  </si>
+  <si>
+    <t>PinCode</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Kannur Village</t>
+  </si>
+  <si>
+    <t>ProjectDescription</t>
+  </si>
+  <si>
+    <t>ETWE656</t>
+  </si>
+  <si>
+    <t>InnovationOrIdeaForProduct</t>
+  </si>
+  <si>
+    <t>SHA436JD</t>
+  </si>
+  <si>
+    <t>TechnologyOrProvenConcept</t>
+  </si>
+  <si>
+    <t>BJH7Y6UE4</t>
+  </si>
+  <si>
+    <t>AddressableOrserviceableMarket</t>
+  </si>
+  <si>
+    <t>CXDZXS22</t>
+  </si>
+  <si>
+    <t>ReachOutStrategies</t>
+  </si>
+  <si>
+    <t>BXNZFYEG</t>
+  </si>
+  <si>
+    <t>ProposedRevenueModelPricing</t>
+  </si>
+  <si>
+    <t>CVSHSJD</t>
+  </si>
+  <si>
+    <t>CurrentStatusOfProject</t>
+  </si>
+  <si>
+    <t>SDFGH</t>
+  </si>
+  <si>
+    <t>MarketAndFutureProfitability</t>
+  </si>
+  <si>
+    <t>ERTGHNBG</t>
+  </si>
+  <si>
+    <t>ExitOptionsForLender</t>
+  </si>
+  <si>
+    <t>SETWYS32323</t>
+  </si>
+  <si>
+    <t>ProductOrServicesOrRawmeterialsOfTheProject</t>
+  </si>
+  <si>
+    <t>JFHVGUY875643875</t>
+  </si>
+  <si>
+    <t>KSIDC.11@gmail.com</t>
+  </si>
+  <si>
+    <t>ABC54R34QW4334</t>
+  </si>
+  <si>
+    <t>HUYTG5656R</t>
+  </si>
+  <si>
+    <t>KSIDCcp@1234#</t>
+  </si>
+  <si>
+    <t>Document_Upload_Module</t>
+  </si>
+  <si>
     <t>KSIDC.15@gmail.com</t>
   </si>
   <si>
     <t>KSIDCcp@123#</t>
   </si>
   <si>
-    <t>Business_Information_Module</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>KSIDC_CP</t>
-  </si>
-  <si>
-    <t>1,00,00,000.00</t>
-  </si>
-  <si>
-    <t>DocketAmount</t>
-  </si>
-  <si>
-    <t>LoanAmountRequired</t>
-  </si>
-  <si>
-    <t>5,00,00,000.00</t>
-  </si>
-  <si>
-    <t>GFDYR676</t>
-  </si>
-  <si>
-    <t>ProductServiceName</t>
-  </si>
-  <si>
-    <t>BreakEvenPeriod</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>ProjectImplementationPeriodInMonths</t>
-  </si>
-  <si>
-    <t>ApproxTotalLabourCount</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>HFIIK38743874</t>
-  </si>
-  <si>
-    <t>DocketNumber</t>
-  </si>
-  <si>
-    <t>11/11/2024</t>
-  </si>
-  <si>
-    <t>TreasuryReleaseDate</t>
-  </si>
-  <si>
-    <t>DWE34DF33333</t>
-  </si>
-  <si>
-    <t>ProductionCapacityQuantityPerAnnumTest</t>
-  </si>
-  <si>
-    <t>Basic_Information_Module</t>
-  </si>
-  <si>
-    <t>UdyamNoUdyogAadhaar</t>
-  </si>
-  <si>
-    <t>UDYAM-MH-19-0044030</t>
-  </si>
-  <si>
-    <t>9876543213</t>
-  </si>
-  <si>
-    <t>InstitutionMobile</t>
-  </si>
-  <si>
-    <t>01234567899</t>
-  </si>
-  <si>
-    <t>LandlineNumberTest</t>
-  </si>
-  <si>
-    <t>WebsiteTest</t>
-  </si>
-  <si>
-    <t>CustomerPortal123</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>ExternalCreditRating</t>
-  </si>
-  <si>
-    <t>TIN</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>GSTIN</t>
-  </si>
-  <si>
-    <t>L17110MH1973PLC019786</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>L17110MH197</t>
-  </si>
-  <si>
-    <t>PDES03028F</t>
-  </si>
-  <si>
-    <t>22AAAAA0000A1Z5</t>
-  </si>
-  <si>
-    <t>ShareHoldingByIndividuals</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>CKYCID</t>
-  </si>
-  <si>
-    <t>12345678912345</t>
-  </si>
-  <si>
-    <t>DPIITNumber</t>
-  </si>
-  <si>
-    <t>D4565</t>
-  </si>
-  <si>
-    <t>KSUMNumber</t>
-  </si>
-  <si>
-    <t>ABCD1234</t>
-  </si>
-  <si>
-    <t>IFSCCODE</t>
-  </si>
-  <si>
-    <t>SBIN0070576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0110040500000013 </t>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>Tentative_project_cost_Module</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>324545</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>665655</t>
-  </si>
-  <si>
-    <t>PreliminaryExpenses</t>
-  </si>
-  <si>
-    <t>43534534</t>
-  </si>
-  <si>
-    <t>WorkingCapitalMargin</t>
-  </si>
-  <si>
-    <t>426347</t>
-  </si>
-  <si>
-    <t>Vehicles</t>
-  </si>
-  <si>
-    <t>327352</t>
-  </si>
-  <si>
-    <t>MarketingAndPromotionalExpenses</t>
-  </si>
-  <si>
-    <t>324234234</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>334344</t>
-  </si>
-  <si>
-    <t>Specify</t>
-  </si>
-  <si>
-    <t>XD324R322332</t>
-  </si>
-  <si>
-    <t>31231312</t>
-  </si>
-  <si>
-    <t>LandDevelopment</t>
-  </si>
-  <si>
-    <t>234324</t>
-  </si>
-  <si>
-    <t>BuildingCivilWorks</t>
-  </si>
-  <si>
-    <t>4343535</t>
-  </si>
-  <si>
-    <t>MiscFixedAssets</t>
-  </si>
-  <si>
-    <t>5466575</t>
-  </si>
-  <si>
-    <t>Deposits</t>
-  </si>
-  <si>
-    <t>654656</t>
-  </si>
-  <si>
-    <t>WorkingCapitalAmt</t>
-  </si>
-  <si>
-    <t>243435</t>
-  </si>
-  <si>
-    <t>TechnicalKnowHowFees</t>
-  </si>
-  <si>
-    <t>3232323</t>
-  </si>
-  <si>
-    <t>TechnologyOptimizationAndProductDevelopment</t>
-  </si>
-  <si>
-    <t>334343434</t>
-  </si>
-  <si>
-    <t>TestingAndCertification</t>
-  </si>
-  <si>
-    <t>987654567</t>
-  </si>
-  <si>
-    <t>PlantMachinery</t>
-  </si>
-  <si>
-    <t>Existing_Liability_Module</t>
-  </si>
-  <si>
-    <t>GuaranteeCompanyNameTest</t>
-  </si>
-  <si>
-    <t>GuaranteeCompanyPanTest</t>
-  </si>
-  <si>
-    <t>OUGRY6767RE</t>
-  </si>
-  <si>
-    <t>IFSCCodeTest</t>
-  </si>
-  <si>
-    <t>SBIN0070939</t>
-  </si>
-  <si>
-    <t>SanctionAmount</t>
-  </si>
-  <si>
-    <t>34567</t>
-  </si>
-  <si>
-    <t>OutstandingBalance</t>
-  </si>
-  <si>
-    <t>345678</t>
-  </si>
-  <si>
-    <t>LoanArrears</t>
-  </si>
-  <si>
-    <t>99664</t>
-  </si>
-  <si>
-    <t>BJH7UY643R</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Project_Details_Module</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>BSH3476</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>DU3279DWDD</t>
-  </si>
-  <si>
-    <t>UnitAge</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Street 12B</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
-    <t>Apt 34C</t>
-  </si>
-  <si>
-    <t>Near Park</t>
-  </si>
-  <si>
-    <t>PinCode</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Address3</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
-    <t>Kannur Village</t>
-  </si>
-  <si>
-    <t>ProjectDescription</t>
-  </si>
-  <si>
-    <t>ETWE656</t>
-  </si>
-  <si>
-    <t>InnovationOrIdeaForProduct</t>
-  </si>
-  <si>
-    <t>SHA436JD</t>
-  </si>
-  <si>
-    <t>TechnologyOrProvenConcept</t>
-  </si>
-  <si>
-    <t>BJH7Y6UE4</t>
-  </si>
-  <si>
-    <t>AddressableOrserviceableMarket</t>
-  </si>
-  <si>
-    <t>CXDZXS22</t>
-  </si>
-  <si>
-    <t>ReachOutStrategies</t>
-  </si>
-  <si>
-    <t>BXNZFYEG</t>
-  </si>
-  <si>
-    <t>ProposedRevenueModelPricing</t>
-  </si>
-  <si>
-    <t>CVSHSJD</t>
-  </si>
-  <si>
-    <t>CurrentStatusOfProject</t>
-  </si>
-  <si>
-    <t>SDFGH</t>
-  </si>
-  <si>
-    <t>MarketAndFutureProfitability</t>
-  </si>
-  <si>
-    <t>ERTGHNBG</t>
-  </si>
-  <si>
-    <t>ExitOptionsForLender</t>
-  </si>
-  <si>
-    <t>SETWYS32323</t>
-  </si>
-  <si>
-    <t>ProductOrServicesOrRawmeterialsOfTheProject</t>
-  </si>
-  <si>
-    <t>JFHVGUY875643875</t>
-  </si>
-  <si>
-    <t>KSIDC.11@gmail.com</t>
-  </si>
-  <si>
-    <t>ABC54R34QW4334</t>
-  </si>
-  <si>
-    <t>HUYTG5656R</t>
-  </si>
-  <si>
-    <t>KSIDCcp@1234#</t>
-  </si>
-  <si>
-    <t>sanoopsanoop@gmail.com</t>
-  </si>
-  <si>
-    <t>S@noopGopinatH@123</t>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>RFGHY6578I</t>
+  </si>
+  <si>
+    <t>121212121212</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>9123456789</t>
+  </si>
+  <si>
+    <t>CP@gmail.com</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Derf</t>
+  </si>
+  <si>
+    <t>03/12/1992</t>
+  </si>
+  <si>
+    <t>Entrepreneur_Details_Module</t>
+  </si>
+  <si>
+    <t>P_AddressLine1</t>
+  </si>
+  <si>
+    <t>P_AddressLine2</t>
+  </si>
+  <si>
+    <t>P_AddressLine3</t>
+  </si>
+  <si>
+    <t>LandMark</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>YDGEF7634</t>
+  </si>
+  <si>
+    <t>FSNEJ74</t>
+  </si>
+  <si>
+    <t>SANJ43</t>
+  </si>
+  <si>
+    <t>EHYGRF</t>
+  </si>
+  <si>
+    <t>YERGFYR</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>BEYT4634</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>B.E</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>CDR3F534T34EF</t>
+  </si>
+  <si>
+    <t>AwardName</t>
+  </si>
+  <si>
+    <t>AwardProvidedby</t>
+  </si>
+  <si>
+    <t>DSR34T4FDS</t>
+  </si>
+  <si>
+    <t>VDS4E5Y54Y45</t>
+  </si>
+  <si>
+    <t>PassportNumber</t>
+  </si>
+  <si>
+    <t>VoterId</t>
+  </si>
+  <si>
+    <t>CKYC</t>
+  </si>
+  <si>
+    <t>PercentageOfShareHolding</t>
+  </si>
+  <si>
+    <t>LA123456</t>
+  </si>
+  <si>
+    <t>YCV0164822</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -578,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -614,8 +767,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -900,7 +1054,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,19 +1126,19 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1013,7 +1167,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,34 +1191,34 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1077,43 +1231,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1125,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1288,7 @@
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1161,49 +1315,49 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1211,58 +1365,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="S2" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1274,16 +1428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F39C5-70E7-4C54-AA28-EBEFD8F5C6A1}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -1316,55 +1470,55 @@
         <v>9</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1372,73 +1526,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="R2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{61D42DDF-4134-4436-A550-C494A349DC44}"/>
-    <hyperlink ref="D2" r:id="rId2" display="S@noop" xr:uid="{C52770D3-C323-4CCD-9A22-456DCBDFBBFE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1447,7 +1597,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,25 +1627,25 @@
         <v>9</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="K1" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1503,34 +1653,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="K2" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1543,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD2387F-1FF1-4CEF-8161-5D26F4934D72}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,58 +1723,58 @@
         <v>9</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="O1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="R1" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1632,67 +1782,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="R2" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="V2" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1705,4 +1855,269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59097C4B-6171-41FB-8643-CE1C2531D49B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FC93F-C256-4807-8DC3-4FBEBA2B7A4F}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98074E0-45C1-460C-BB62-882A1901C0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E20A29-DD39-472D-B1FF-805784FE6994}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="KSIDC_Project_Details" sheetId="16" r:id="rId6"/>
     <sheet name="KSIDC_Document_Upload" sheetId="17" r:id="rId7"/>
     <sheet name="KSIDC_Entrepreneur_Details" sheetId="18" r:id="rId8"/>
+    <sheet name="KSIDC_Entity_Details" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="229">
   <si>
     <t>Yes</t>
   </si>
@@ -49,9 +50,6 @@
     <t>MobileNumber</t>
   </si>
   <si>
-    <t>VerificationCode</t>
-  </si>
-  <si>
     <t>EmailAddress</t>
   </si>
   <si>
@@ -646,14 +644,89 @@
     <t>YCV0164822</t>
   </si>
   <si>
-    <t>25</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Entity_Details_Module</t>
+  </si>
+  <si>
+    <t>ASDRT6677Y</t>
+  </si>
+  <si>
+    <t>NameOfInstitution</t>
+  </si>
+  <si>
+    <t>KERALA INSTITUTE123</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>DS4T54TGRFX5</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>BSH4TR6SH7U4</t>
+  </si>
+  <si>
+    <t>AddressLine3</t>
+  </si>
+  <si>
+    <t>VGETW53</t>
+  </si>
+  <si>
+    <t>D3DW</t>
+  </si>
+  <si>
+    <t>EDF22323323</t>
+  </si>
+  <si>
+    <t>9876544567</t>
+  </si>
+  <si>
+    <t>InstitutionEmail</t>
+  </si>
+  <si>
+    <t>ERA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>ExternalCreditRatingTest</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>ASDZX4567E</t>
+  </si>
+  <si>
+    <t>CompanyPAN1</t>
+  </si>
+  <si>
+    <t>672210</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>MobileOTP</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>EmailOTP</t>
+  </si>
+  <si>
+    <t>6789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,14 +738,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -727,11 +792,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -752,15 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -771,8 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1051,31 +1105,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="18" width="21.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1086,24 +1140,26 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1113,8 +1169,9 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1124,38 +1181,43 @@
       <c r="C2" s="7">
         <v>9954327851</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="shrilesha@gmail.com" xr:uid="{9EE0371A-B998-4EC4-9706-035CDFE5088D}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{1736B980-6722-44C1-94F3-29D1BBEE6077}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{B9992E4D-8103-4190-87F0-3AA2484FFE25}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{1736B980-6722-44C1-94F3-29D1BBEE6077}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{B9992E4D-8103-4190-87F0-3AA2484FFE25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1166,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1185,40 +1247,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1231,43 +1293,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>29</v>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1279,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,55 +1371,55 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1365,58 +1427,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="14" t="s">
+      <c r="N2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1464,61 +1526,61 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1526,64 +1588,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>78</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1621,31 +1683,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>110</v>
+      <c r="G1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1653,34 +1715,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1717,64 +1779,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1782,75 +1844,75 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="14" t="s">
+      <c r="D2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>127</v>
+      <c r="U2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,7 +1924,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,10 +1943,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="12" t="s">
         <v>151</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1910,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FC93F-C256-4807-8DC3-4FBEBA2B7A4F}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,85 +2009,85 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T1" s="16" t="s">
+      <c r="R1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="X1" s="16" t="s">
+      <c r="V1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="Y1" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -2033,88 +2095,247 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="T2" s="18" t="s">
+      <c r="R2" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="X2" s="18" t="s">
+      <c r="V2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y2" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AB2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="AB2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="18" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>204</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E20A29-DD39-472D-B1FF-805784FE6994}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C04F3F-370A-4063-A65E-8083C9F5F773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="KSIDC_Document_Upload" sheetId="17" r:id="rId7"/>
     <sheet name="KSIDC_Entrepreneur_Details" sheetId="18" r:id="rId8"/>
     <sheet name="KSIDC_Entity_Details" sheetId="19" r:id="rId9"/>
+    <sheet name="KSIDC_Other_Share_Pattern" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="256">
   <si>
     <t>Yes</t>
   </si>
@@ -644,9 +645,6 @@
     <t>YCV0164822</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Entity_Details_Module</t>
   </si>
   <si>
@@ -720,6 +718,90 @@
   </si>
   <si>
     <t>6789</t>
+  </si>
+  <si>
+    <t>12/12/1992</t>
+  </si>
+  <si>
+    <t>9123450123</t>
+  </si>
+  <si>
+    <t>CPAQ@yahoo.com</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>GHI</t>
+  </si>
+  <si>
+    <t>DF5TR4</t>
+  </si>
+  <si>
+    <t>54RDS54T</t>
+  </si>
+  <si>
+    <t>GUYJ7J</t>
+  </si>
+  <si>
+    <t>YHNB</t>
+  </si>
+  <si>
+    <t>VGBFBF</t>
+  </si>
+  <si>
+    <t>LandMark1</t>
+  </si>
+  <si>
+    <t>Place1</t>
+  </si>
+  <si>
+    <t>BETECH4</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>CDR3F563746GTWEYYYTEYWTE</t>
+  </si>
+  <si>
+    <t>HGY7UI8H</t>
+  </si>
+  <si>
+    <t>ZERFT54</t>
+  </si>
+  <si>
+    <t>LA120056</t>
+  </si>
+  <si>
+    <t>YCV0164123</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Other_Share_Pattern_Details_Module</t>
+  </si>
+  <si>
+    <t>NoOnNonMajorShareHolders</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>PercentageOfShareHolded</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1182,13 +1264,13 @@
         <v>9954327851</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>148</v>
@@ -1221,6 +1303,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BB0E3-9FDC-4B4D-9E0E-0DB6DA317FF1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1973,7 +2117,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2320,7 @@
         <v>52</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2186,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,10 +2349,23 @@
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2225,16 +2382,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>174</v>
@@ -2243,16 +2400,16 @@
         <v>175</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>41</v>
@@ -2270,15 +2427,84 @@
         <v>200</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>222</v>
+        <v>154</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>152</v>
@@ -2287,37 +2513,37 @@
         <v>153</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>216</v>
-      </c>
       <c r="N2" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>46</v>
@@ -2332,10 +2558,79 @@
         <v>52</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>221</v>
+        <v>251</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP2" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C04F3F-370A-4063-A65E-8083C9F5F773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B283911-9243-4FB7-8675-578F0ADB0E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="KSIDC_Entrepreneur_Details" sheetId="18" r:id="rId8"/>
     <sheet name="KSIDC_Entity_Details" sheetId="19" r:id="rId9"/>
     <sheet name="KSIDC_Other_Share_Pattern" sheetId="20" r:id="rId10"/>
+    <sheet name="KSIDC_Enterpreneur_Doc_Upload" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="257">
   <si>
     <t>Yes</t>
   </si>
@@ -802,6 +803,9 @@
   </si>
   <si>
     <t>PercentageOfShareHolded</t>
+  </si>
+  <si>
+    <t>Enterpreneur_Document_Upload_Module</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BB0E3-9FDC-4B4D-9E0E-0DB6DA317FF1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1361,6 +1365,55 @@
       </c>
       <c r="F2" s="11" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12827041-A52E-468B-AD86-20B2ADBCD9C3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B283911-9243-4FB7-8675-578F0ADB0E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D0A43E-57CA-407B-A757-46867E3C6345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="259">
   <si>
     <t>Yes</t>
   </si>
@@ -806,6 +806,12 @@
   </si>
   <si>
     <t>Enterpreneur_Document_Upload_Module</t>
+  </si>
+  <si>
+    <t>sanoop008@gmail.com</t>
+  </si>
+  <si>
+    <t>S@noopGopinatH@123</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12827041-A52E-468B-AD86-20B2ADBCD9C3}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1538,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,10 +1633,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>32</v>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D0A43E-57CA-407B-A757-46867E3C6345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722B1BB-0ACA-41DC-B519-B24A245287AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="258">
   <si>
     <t>Yes</t>
   </si>
@@ -484,9 +484,6 @@
     <t>ABC54R34QW4334</t>
   </si>
   <si>
-    <t>HUYTG5656R</t>
-  </si>
-  <si>
     <t>KSIDCcp@1234#</t>
   </si>
   <si>
@@ -808,17 +805,17 @@
     <t>Enterpreneur_Document_Upload_Module</t>
   </si>
   <si>
-    <t>sanoop008@gmail.com</t>
-  </si>
-  <si>
-    <t>S@noopGopinatH@123</t>
+    <t>KSIDC.011@gmail.com</t>
+  </si>
+  <si>
+    <t>HUYTG5656A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +827,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -884,10 +889,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,8 +923,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1200,7 +1210,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,13 +1242,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1271,28 +1281,28 @@
         <v>3</v>
       </c>
       <c r="C2" s="7">
-        <v>9954327851</v>
+        <v>9954327852</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>224</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1307,7 +1317,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="shrilesha@gmail.com" xr:uid="{9EE0371A-B998-4EC4-9706-035CDFE5088D}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9EE0371A-B998-4EC4-9706-035CDFE5088D}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{1736B980-6722-44C1-94F3-29D1BBEE6077}"/>
     <hyperlink ref="J2" r:id="rId3" xr:uid="{B9992E4D-8103-4190-87F0-3AA2484FFE25}"/>
   </hyperlinks>
@@ -1347,10 +1357,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>50</v>
@@ -1413,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1431,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,11 +1508,11 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>147</v>
+      <c r="C2" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1536,6 +1546,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ED226C38-231D-4B71-822E-EB4691DEFB51}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1544,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,18 +1638,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>257</v>
+      <c r="C2" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>32</v>
@@ -1685,6 +1698,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{35B427C2-A4CC-497B-81BE-005696FF1133}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1694,14 +1710,14 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
@@ -1793,11 +1809,11 @@
       <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>147</v>
+      <c r="C2" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>78</v>
@@ -1852,8 +1868,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2BF291EF-9469-4E16-828F-A7F55C96BB80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1862,7 +1881,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,18 +1932,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>147</v>
+      <c r="C2" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>56</v>
@@ -1949,8 +1968,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BE01E021-B84F-4E73-8170-91DABB817C06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1958,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD2387F-1FF1-4CEF-8161-5D26F4934D72}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,18 +2064,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>147</v>
+      <c r="C2" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>128</v>
@@ -2118,6 +2140,9 @@
       <c r="N3" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F87D2043-8013-40D1-98D6-CA4D98113004}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2157,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2218,79 +2243,79 @@
         <v>8</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="G1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>166</v>
-      </c>
       <c r="M1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>175</v>
-      </c>
       <c r="R1" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="V1" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="Y1" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="Z1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -2298,88 +2323,88 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="J2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>168</v>
-      </c>
       <c r="M2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="R2" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="V2" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X2" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="Y2" s="16" t="s">
-        <v>196</v>
-      </c>
       <c r="Z2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA2" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="AB2" s="15" t="s">
         <v>52</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2441,34 +2466,34 @@
         <v>6</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>175</v>
-      </c>
       <c r="L1" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>41</v>
@@ -2483,79 +2508,79 @@
         <v>51</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="X1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="Z1" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="13" t="s">
-        <v>166</v>
-      </c>
       <c r="AC1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AE1" s="13" t="s">
-        <v>173</v>
-      </c>
       <c r="AF1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="AG1" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="AH1" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="AL1" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO1" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="AO1" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="AP1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -2563,46 +2588,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="N2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>46</v>
@@ -2617,76 +2642,76 @@
         <v>52</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="AG2" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="AH2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="AI2" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AP2" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="AR2" s="15" t="s">
         <v>52</v>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722B1BB-0ACA-41DC-B519-B24A245287AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD754DC6-93AF-4B4C-AF53-9155C7F99E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="KSIDC_Entity_Details" sheetId="19" r:id="rId9"/>
     <sheet name="KSIDC_Other_Share_Pattern" sheetId="20" r:id="rId10"/>
     <sheet name="KSIDC_Enterpreneur_Doc_Upload" sheetId="21" r:id="rId11"/>
+    <sheet name="KSIDC_Business_Enterpreneur" sheetId="22" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="274">
   <si>
     <t>Yes</t>
   </si>
@@ -478,9 +479,6 @@
     <t>JFHVGUY875643875</t>
   </si>
   <si>
-    <t>KSIDC.11@gmail.com</t>
-  </si>
-  <si>
     <t>ABC54R34QW4334</t>
   </si>
   <si>
@@ -490,21 +488,12 @@
     <t>Document_Upload_Module</t>
   </si>
   <si>
-    <t>KSIDC.15@gmail.com</t>
-  </si>
-  <si>
-    <t>KSIDCcp@123#</t>
-  </si>
-  <si>
     <t>Aadhaar</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>RFGHY6578I</t>
-  </si>
-  <si>
     <t>121212121212</t>
   </si>
   <si>
@@ -646,9 +635,6 @@
     <t>Entity_Details_Module</t>
   </si>
   <si>
-    <t>ASDRT6677Y</t>
-  </si>
-  <si>
     <t>NameOfInstitution</t>
   </si>
   <si>
@@ -809,6 +795,69 @@
   </si>
   <si>
     <t>HUYTG5656A</t>
+  </si>
+  <si>
+    <t>RFOOY6578I</t>
+  </si>
+  <si>
+    <t>ASJRT6677Y</t>
+  </si>
+  <si>
+    <t>Business_Entrepreneur_Details_Module</t>
+  </si>
+  <si>
+    <t>DetailsOfPresentActivities</t>
+  </si>
+  <si>
+    <t>BXE46TRFN</t>
+  </si>
+  <si>
+    <t>NetWorth</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>LastFinYearTotalIncome</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>EntrepreneurFund</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>CoampanyName</t>
+  </si>
+  <si>
+    <t>KSIDC</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>ExtentOfFundsInvested</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>PercentageShareholding</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>NetLoss</t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
 </sst>
 </file>
@@ -893,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -925,6 +974,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,13 +1301,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1284,25 +1343,25 @@
         <v>9954327852</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1328,58 +1387,44 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BB0E3-9FDC-4B4D-9E0E-0DB6DA317FF1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>254</v>
+      <c r="C1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1390,46 +1435,122 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12827041-A52E-468B-AD86-20B2ADBCD9C3}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2187721E-EFDD-4C59-865E-7B943CCAEF0D}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="19"/>
+    <col min="2" max="2" width="37.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="24.7109375" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>152</v>
+      <c r="C2" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1439,20 +1560,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1460,126 +1581,109 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>149</v>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{ED226C38-231D-4B71-822E-EB4691DEFB51}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1587,607 +1691,527 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="G2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="11" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{35B427C2-A4CC-497B-81BE-005696FF1133}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F39C5-70E7-4C54-AA28-EBEFD8F5C6A1}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="21.42578125" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="C1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="G2" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="11" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2BF291EF-9469-4E16-828F-A7F55C96BB80}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E293321F-B061-4F7A-B202-F3CBF5A4C696}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="C1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="F2" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="11" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BE01E021-B84F-4E73-8170-91DABB817C06}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD2387F-1FF1-4CEF-8161-5D26F4934D72}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="C1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="V1" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="F2" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F87D2043-8013-40D1-98D6-CA4D98113004}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59097C4B-6171-41FB-8643-CE1C2531D49B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="9" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2198,49 +2222,47 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FC93F-C256-4807-8DC3-4FBEBA2B7A4F}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="C1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>153</v>
@@ -2249,55 +2271,55 @@
         <v>154</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>158</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>172</v>
-      </c>
       <c r="P1" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>180</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>184</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V1" s="13" t="s">
         <v>188</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>192</v>
@@ -2306,105 +2328,93 @@
         <v>193</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>155</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>179</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>183</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>187</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="W2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" s="16" t="s">
         <v>191</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2414,158 +2424,156 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
+      <c r="C1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>222</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>153</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X1" s="13" t="s">
         <v>158</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="AH1" s="13" t="s">
         <v>180</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ1" s="13" t="s">
         <v>184</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL1" s="13" t="s">
         <v>188</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN1" s="13" t="s">
         <v>192</v>
@@ -2574,146 +2582,134 @@
         <v>193</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>219</v>
+      <c r="U2" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="W2" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AC2" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL2" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="AI2" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AM2" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="AP2" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="AR2" s="15" t="s">
         <v>52</v>
       </c>
     </row>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD754DC6-93AF-4B4C-AF53-9155C7F99E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48EEF1-F3C3-44D3-AD2D-393FEDEC8058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="KSIDC_Other_Share_Pattern" sheetId="20" r:id="rId10"/>
     <sheet name="KSIDC_Enterpreneur_Doc_Upload" sheetId="21" r:id="rId11"/>
     <sheet name="KSIDC_Business_Enterpreneur" sheetId="22" r:id="rId12"/>
+    <sheet name="KSIDC_Business_Entity" sheetId="23" r:id="rId13"/>
+    <sheet name="KSIDC_Entity_Doc_Upload" sheetId="25" r:id="rId14"/>
+    <sheet name="KSIDC_Project_Cost_Verification" sheetId="26" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="315">
   <si>
     <t>Yes</t>
   </si>
@@ -791,18 +794,12 @@
     <t>Enterpreneur_Document_Upload_Module</t>
   </si>
   <si>
-    <t>KSIDC.011@gmail.com</t>
-  </si>
-  <si>
     <t>HUYTG5656A</t>
   </si>
   <si>
     <t>RFOOY6578I</t>
   </si>
   <si>
-    <t>ASJRT6677Y</t>
-  </si>
-  <si>
     <t>Business_Entrepreneur_Details_Module</t>
   </si>
   <si>
@@ -858,6 +855,135 @@
   </si>
   <si>
     <t>220</t>
+  </si>
+  <si>
+    <t>NetProfit</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>SBIN0070575</t>
+  </si>
+  <si>
+    <t>IFSCCode</t>
+  </si>
+  <si>
+    <t>AccountNo</t>
+  </si>
+  <si>
+    <t>0110040500000015</t>
+  </si>
+  <si>
+    <t>34567771</t>
+  </si>
+  <si>
+    <t>TenurePending</t>
+  </si>
+  <si>
+    <t>CommittedAmount</t>
+  </si>
+  <si>
+    <t>KeyConditionsOrMilestonesSetByVC</t>
+  </si>
+  <si>
+    <t>FDRT6YGFRGB</t>
+  </si>
+  <si>
+    <t>AdditionalDetails</t>
+  </si>
+  <si>
+    <t>7832RHBSU7YWH</t>
+  </si>
+  <si>
+    <t>Funds</t>
+  </si>
+  <si>
+    <t>45673</t>
+  </si>
+  <si>
+    <t>Business_Entity_Details_Module</t>
+  </si>
+  <si>
+    <t>DetailsActivities</t>
+  </si>
+  <si>
+    <t>BHJ732TRSAJ7487837438</t>
+  </si>
+  <si>
+    <t>ProductOrService</t>
+  </si>
+  <si>
+    <t>KSIDCcp</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>SBIN0008627</t>
+  </si>
+  <si>
+    <t>0110040500120019</t>
+  </si>
+  <si>
+    <t>34567771233</t>
+  </si>
+  <si>
+    <t>34567823</t>
+  </si>
+  <si>
+    <t>EntityName</t>
+  </si>
+  <si>
+    <t>WEDFGB</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>34567832</t>
+  </si>
+  <si>
+    <t>FDRT6YGFRGB32d</t>
+  </si>
+  <si>
+    <t>7832RHBSU7YWHs3r</t>
+  </si>
+  <si>
+    <t>Entity_Document_Upload_Module</t>
+  </si>
+  <si>
+    <t>KSIDC.012@gmail.com</t>
+  </si>
+  <si>
+    <t>ASJRT6677L</t>
+  </si>
+  <si>
+    <t>Project_Cost_Verification_Module</t>
+  </si>
+  <si>
+    <t>422347</t>
+  </si>
+  <si>
+    <t>242235</t>
+  </si>
+  <si>
+    <t>3765433</t>
+  </si>
+  <si>
+    <t>76543</t>
+  </si>
+  <si>
+    <t>2345678</t>
+  </si>
+  <si>
+    <t>7786786</t>
+  </si>
+  <si>
+    <t>CRFT6YHCFTRH6YUCGBTR6Y</t>
   </si>
 </sst>
 </file>
@@ -942,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -985,6 +1111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1269,7 +1400,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,13 +1471,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="7">
-        <v>9954327852</v>
+        <v>9954327856</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>219</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>221</v>
@@ -1355,7 +1486,7 @@
         <v>147</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>148</v>
@@ -1438,7 +1569,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2187721E-EFDD-4C59-865E-7B943CCAEF0D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1614,7 @@
     <col min="3" max="16384" width="24.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -1491,66 +1622,358 @@
         <v>2</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>272</v>
       </c>
+      <c r="M1" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>273</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F362471-D3AF-47F3-A1C6-AF8CA345A37A}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A48D9-FED2-4659-804C-0C664D02ECF8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E387B-16B5-4B2C-B3E6-F89934697231}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1562,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F39C5-70E7-4C54-AA28-EBEFD8F5C6A1}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2768,7 @@
         <v>152</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>164</v>
@@ -2426,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,7 +3016,7 @@
         <v>198</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>200</v>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48EEF1-F3C3-44D3-AD2D-393FEDEC8058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BFC41-8095-4312-A370-080334C54AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="KSIDC_Business_Entity" sheetId="23" r:id="rId13"/>
     <sheet name="KSIDC_Entity_Doc_Upload" sheetId="25" r:id="rId14"/>
     <sheet name="KSIDC_Project_Cost_Verification" sheetId="26" r:id="rId15"/>
+    <sheet name="KSIDC_Plant_And_Machinery" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="336">
   <si>
     <t>Yes</t>
   </si>
@@ -984,6 +985,69 @@
   </si>
   <si>
     <t>CRFT6YHCFTRH6YUCGBTR6Y</t>
+  </si>
+  <si>
+    <t>Plant_And_Machinery_Module</t>
+  </si>
+  <si>
+    <t>MachineryName</t>
+  </si>
+  <si>
+    <t>BHDBG463</t>
+  </si>
+  <si>
+    <t>MachineryManufactureName</t>
+  </si>
+  <si>
+    <t>HXZYE6TR4</t>
+  </si>
+  <si>
+    <t>ExchangeRate</t>
+  </si>
+  <si>
+    <t>45678</t>
+  </si>
+  <si>
+    <t>MachineryBaseCost</t>
+  </si>
+  <si>
+    <t>TransportationCost</t>
+  </si>
+  <si>
+    <t>9987654</t>
+  </si>
+  <si>
+    <t>InstallationCost</t>
+  </si>
+  <si>
+    <t>MachineryBCD</t>
+  </si>
+  <si>
+    <t>5567</t>
+  </si>
+  <si>
+    <t>MachinerySWS</t>
+  </si>
+  <si>
+    <t>3456</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>MachineryCount</t>
+  </si>
+  <si>
+    <t>52782</t>
+  </si>
+  <si>
+    <t>AssetTaxRate</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -1603,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2187721E-EFDD-4C59-865E-7B943CCAEF0D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E387B-16B5-4B2C-B3E6-F89934697231}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,6 +2038,112 @@
       </c>
       <c r="I2" s="11" t="s">
         <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF47683-81D4-40DA-8749-2DDB555E09D3}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="11">
+        <v>7534567</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BFC41-8095-4312-A370-080334C54AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2997D61C-C0E4-4764-9193-1587376E773E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -29,6 +29,10 @@
     <sheet name="KSIDC_Entity_Doc_Upload" sheetId="25" r:id="rId14"/>
     <sheet name="KSIDC_Project_Cost_Verification" sheetId="26" r:id="rId15"/>
     <sheet name="KSIDC_Plant_And_Machinery" sheetId="27" r:id="rId16"/>
+    <sheet name="KSIDC_Land" sheetId="28" r:id="rId17"/>
+    <sheet name="KSIDC_Land_Development" sheetId="29" r:id="rId18"/>
+    <sheet name="KSIDC_Building_CivilWork" sheetId="30" r:id="rId19"/>
+    <sheet name="KSIDC_Utilities" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="371">
   <si>
     <t>Yes</t>
   </si>
@@ -1048,6 +1052,111 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>Land_Module</t>
+  </si>
+  <si>
+    <t>TitleHolder</t>
+  </si>
+  <si>
+    <t>Land123</t>
+  </si>
+  <si>
+    <t>DocNo</t>
+  </si>
+  <si>
+    <t>D4343</t>
+  </si>
+  <si>
+    <t>SurveyNo</t>
+  </si>
+  <si>
+    <t>HJU8989</t>
+  </si>
+  <si>
+    <t>ResurveyNo</t>
+  </si>
+  <si>
+    <t>WTR544</t>
+  </si>
+  <si>
+    <t>ExtendOfLandDRY</t>
+  </si>
+  <si>
+    <t>ExtendOfLand</t>
+  </si>
+  <si>
+    <t>3345</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>NBDY</t>
+  </si>
+  <si>
+    <t>YWEGFU</t>
+  </si>
+  <si>
+    <t>Taluk</t>
+  </si>
+  <si>
+    <t>EUFYGE</t>
+  </si>
+  <si>
+    <t>CostOfLandIncludingRegistration</t>
+  </si>
+  <si>
+    <t>RegistrationAmount</t>
+  </si>
+  <si>
+    <t>4454</t>
+  </si>
+  <si>
+    <t>457678</t>
+  </si>
+  <si>
+    <t>Land_Development_Module</t>
+  </si>
+  <si>
+    <t>EstimatedCost</t>
+  </si>
+  <si>
+    <t>456799</t>
+  </si>
+  <si>
+    <t>BuildingArea</t>
+  </si>
+  <si>
+    <t>Building_Civil_Work_Module</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>CostForTheBuilding</t>
+  </si>
+  <si>
+    <t>66843221</t>
+  </si>
+  <si>
+    <t>ArchitectOrEngineersName</t>
+  </si>
+  <si>
+    <t>FTY756HH</t>
+  </si>
+  <si>
+    <t>BuildingAge</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Utilities_Module</t>
+  </si>
+  <si>
+    <t>CostForUtilityIncludingGST</t>
   </si>
 </sst>
 </file>
@@ -2049,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF47683-81D4-40DA-8749-2DDB555E09D3}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,6 +2257,226 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9068FB7D-9485-4BB9-8F30-8E11F043A2B0}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C74131-73DF-4DE0-A3B4-23C54BFA5F1E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8D6206-0289-4B0C-A3C9-430C7BE6F86C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2245,6 +2574,47 @@
       </c>
       <c r="L2" s="8" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0DFA61-7353-4BE0-98A0-74D687B97FF5}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2997D61C-C0E4-4764-9193-1587376E773E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514CC505-E32A-4E46-B2D4-49A68A792ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="KSIDC_Land_Development" sheetId="29" r:id="rId18"/>
     <sheet name="KSIDC_Building_CivilWork" sheetId="30" r:id="rId19"/>
     <sheet name="KSIDC_Utilities" sheetId="31" r:id="rId20"/>
+    <sheet name="KSIDC_Misc_Fixed_Asset" sheetId="32" r:id="rId21"/>
+    <sheet name="KSIDC_Vehicle" sheetId="33" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="397">
   <si>
     <t>Yes</t>
   </si>
@@ -802,9 +804,6 @@
     <t>HUYTG5656A</t>
   </si>
   <si>
-    <t>RFOOY6578I</t>
-  </si>
-  <si>
     <t>Business_Entrepreneur_Details_Module</t>
   </si>
   <si>
@@ -1157,6 +1156,87 @@
   </si>
   <si>
     <t>CostForUtilityIncludingGST</t>
+  </si>
+  <si>
+    <t>Misc_Fixed_Asset_Module</t>
+  </si>
+  <si>
+    <t>345123456</t>
+  </si>
+  <si>
+    <t>RFAZY6578I</t>
+  </si>
+  <si>
+    <t>VehicleModel</t>
+  </si>
+  <si>
+    <t>Vehicle_Details_Module</t>
+  </si>
+  <si>
+    <t>FTYHJF676</t>
+  </si>
+  <si>
+    <t>VehicleColour</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>ExShowRoomPrice</t>
+  </si>
+  <si>
+    <t>OnRoadPrice</t>
+  </si>
+  <si>
+    <t>56783333</t>
+  </si>
+  <si>
+    <t>VehicleNumber</t>
+  </si>
+  <si>
+    <t>SDFG5678</t>
+  </si>
+  <si>
+    <t>EngineNumber</t>
+  </si>
+  <si>
+    <t>SDF3456</t>
+  </si>
+  <si>
+    <t>ChaseNumber</t>
+  </si>
+  <si>
+    <t>xcv5678</t>
+  </si>
+  <si>
+    <t>RegistrationDate</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>InsuranceAmount</t>
+  </si>
+  <si>
+    <t>RoadTax</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
+    <t>RegistrationAndOtherCharges</t>
+  </si>
+  <si>
+    <t>8345</t>
+  </si>
+  <si>
+    <t>DealerDiscount</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>DownPayment</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1730,7 @@
         <v>219</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>221</v>
@@ -1795,58 +1875,58 @@
         <v>2</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M1" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>276</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>104</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="R1" s="18" t="s">
-        <v>281</v>
-      </c>
       <c r="S1" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1854,46 +1934,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>274</v>
-      </c>
       <c r="N2" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>105</v>
@@ -1902,13 +1982,13 @@
         <v>105</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1951,40 +2031,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>104</v>
       </c>
       <c r="I1" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="M1" s="22" t="s">
-        <v>281</v>
-      </c>
       <c r="N1" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1992,43 +2072,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>296</v>
-      </c>
       <c r="J2" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2125,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2181,37 +2261,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2219,40 +2299,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" s="11">
         <v>7534567</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2290,22 +2370,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>122</v>
@@ -2317,13 +2397,13 @@
         <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2331,43 +2411,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>350</v>
-      </c>
       <c r="L2" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M2" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2442,16 +2522,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>362</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2585,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0DFA61-7353-4BE0-98A0-74D687B97FF5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2611,10 +2691,171 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD1B903-DBD5-4217-84A3-431290C839D2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F066CCA4-AF30-4DBE-B9D7-BBF982E6100C}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3188,7 +3429,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,7 +3549,7 @@
         <v>152</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>164</v>
@@ -3556,7 +3797,7 @@
         <v>198</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>200</v>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514CC505-E32A-4E46-B2D4-49A68A792ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B30C0D0-E0F6-45AE-A80C-E199F5E8D3BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -35,6 +35,9 @@
     <sheet name="KSIDC_Utilities" sheetId="31" r:id="rId20"/>
     <sheet name="KSIDC_Misc_Fixed_Asset" sheetId="32" r:id="rId21"/>
     <sheet name="KSIDC_Vehicle" sheetId="33" r:id="rId22"/>
+    <sheet name="KSIDC_Deposit" sheetId="34" r:id="rId23"/>
+    <sheet name="KSIDC_Preliminary_Expense" sheetId="35" r:id="rId24"/>
+    <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="409">
   <si>
     <t>Yes</t>
   </si>
@@ -1237,6 +1240,42 @@
   </si>
   <si>
     <t>DownPayment</t>
+  </si>
+  <si>
+    <t>Deposit_Details_Module</t>
+  </si>
+  <si>
+    <t>DepositAmount</t>
+  </si>
+  <si>
+    <t>Preliminary_Expense_Module</t>
+  </si>
+  <si>
+    <t>ExpenseAmount</t>
+  </si>
+  <si>
+    <t>345678123</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>Technical_Know_Module</t>
+  </si>
+  <si>
+    <t>ServiceProvider</t>
+  </si>
+  <si>
+    <t>FeeAmount</t>
+  </si>
+  <si>
+    <t>DCCRT</t>
+  </si>
+  <si>
+    <t>CRTG</t>
+  </si>
+  <si>
+    <t>45455454545</t>
   </si>
 </sst>
 </file>
@@ -2747,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F066CCA4-AF30-4DBE-B9D7-BBF982E6100C}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,6 +2899,146 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EC0D90-88B6-443D-BE13-748436BBDE73}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D4C440-D7F1-4ACF-8FBF-3F0C6760D046}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BF876-64BD-4806-8DF0-EDD78541B5B5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3630,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KSIDC\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B30C0D0-E0F6-45AE-A80C-E199F5E8D3BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB01C8-0CE6-4ED1-AB75-2F83B89606B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="KSIDC_Deposit" sheetId="34" r:id="rId23"/>
     <sheet name="KSIDC_Preliminary_Expense" sheetId="35" r:id="rId24"/>
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
+    <sheet name="KSIDC_MeansOfFinance" sheetId="37" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="416">
   <si>
     <t>Yes</t>
   </si>
@@ -1276,6 +1277,27 @@
   </si>
   <si>
     <t>45455454545</t>
+  </si>
+  <si>
+    <t>ShareCapital</t>
+  </si>
+  <si>
+    <t>InternalAccurals</t>
+  </si>
+  <si>
+    <t>UnsecuredLoan</t>
+  </si>
+  <si>
+    <t>IncentivesAndGrants</t>
+  </si>
+  <si>
+    <t>TermLoanFromOtherFI</t>
+  </si>
+  <si>
+    <t>Means of module</t>
+  </si>
+  <si>
+    <t>Test data</t>
   </si>
 </sst>
 </file>
@@ -2989,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BF876-64BD-4806-8DF0-EDD78541B5B5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,6 +3061,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221AA1B6-771A-41E2-8E7B-F141BD94A591}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KSIDC\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB01C8-0CE6-4ED1-AB75-2F83B89606B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EB9B7-D25B-4AB4-9730-881730D250F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="KSIDC_Preliminary_Expense" sheetId="35" r:id="rId24"/>
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
     <sheet name="KSIDC_MeansOfFinance" sheetId="37" r:id="rId26"/>
+    <sheet name="KSIDC_SecurityLand" sheetId="38" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="417">
   <si>
     <t>Yes</t>
   </si>
@@ -1298,6 +1299,9 @@
   </si>
   <si>
     <t>Test data</t>
+  </si>
+  <si>
+    <t>SecurityLandModule</t>
   </si>
 </sst>
 </file>
@@ -3068,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221AA1B6-771A-41E2-8E7B-F141BD94A591}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,6 +3144,47 @@
       </c>
       <c r="I2" t="s">
         <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6432D31-EA2A-4778-92B9-58B3DD2450E3}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B30C0D0-E0F6-45AE-A80C-E199F5E8D3BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6356E3A5-077D-4850-B525-352AB0A27CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="3840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -39,7 +34,8 @@
     <sheet name="KSIDC_Preliminary_Expense" sheetId="35" r:id="rId24"/>
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1691,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BF876-64BD-4806-8DF0-EDD78541B5B5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -2,10 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6356E3A5-077D-4850-B525-352AB0A27CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilesh.bhoir\Documents\GitHub\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC0AA9-D577-45E1-8DBB-239D7F224BE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="3840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11028" windowHeight="3840" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -33,9 +38,10 @@
     <sheet name="KSIDC_Deposit" sheetId="34" r:id="rId23"/>
     <sheet name="KSIDC_Preliminary_Expense" sheetId="35" r:id="rId24"/>
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
+    <sheet name="KSIDC_Sec_Misc_Fixed_Asset" sheetId="37" r:id="rId26"/>
+    <sheet name="KSIDC_Sec_Corporate_Gaurantee" sheetId="38" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="411">
   <si>
     <t>Yes</t>
   </si>
@@ -1272,6 +1278,12 @@
   </si>
   <si>
     <t>45455454545</t>
+  </si>
+  <si>
+    <t>Seurity_Misc_Fixed_Asset_Module</t>
+  </si>
+  <si>
+    <t>Seurity_Corporate_Gaurantee_Module</t>
   </si>
 </sst>
 </file>
@@ -1685,31 +1697,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="18" max="19" width="21.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1764,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1806,20 +1819,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BB0E3-9FDC-4B4D-9E0E-0DB6DA317FF1}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1833,7 +1847,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1854,19 +1868,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12827041-A52E-468B-AD86-20B2ADBCD9C3}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1874,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1889,20 +1904,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2187721E-EFDD-4C59-865E-7B943CCAEF0D}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="19"/>
-    <col min="2" max="2" width="37.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="24.7109375" style="19"/>
+    <col min="1" max="1" width="24.6640625" style="19"/>
+    <col min="2" max="2" width="37.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="24.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -1964,7 +1980,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2033,32 +2049,33 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F362471-D3AF-47F3-A1C6-AF8CA345A37A}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="20"/>
+    <col min="9" max="9" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2102,7 +2119,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2153,18 +2170,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A48D9-FED2-4659-804C-0C664D02ECF8}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2187,26 +2205,27 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E387B-16B5-4B2C-B3E6-F89934697231}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2235,7 +2254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2271,24 +2290,25 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF47683-81D4-40DA-8749-2DDB555E09D3}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +2349,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2377,27 +2397,28 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9068FB7D-9485-4BB9-8F30-8E11F043A2B0}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2441,7 +2462,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2492,20 +2513,21 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C74131-73DF-4DE0-A3B4-23C54BFA5F1E}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2516,7 +2538,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2534,22 +2556,23 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8D6206-0289-4B0C-A3C9-430C7BE6F86C}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2569,7 +2592,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2597,20 +2620,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2653,7 +2677,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2698,19 +2722,20 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0DFA61-7353-4BE0-98A0-74D687B97FF5}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2721,7 +2746,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2739,19 +2764,20 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD1B903-DBD5-4217-84A3-431290C839D2}">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2762,7 +2788,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2780,26 +2806,27 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F066CCA4-AF30-4DBE-B9D7-BBF982E6100C}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2846,7 +2873,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2900,19 +2927,20 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EC0D90-88B6-443D-BE13-748436BBDE73}">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2923,7 +2951,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2941,20 +2969,21 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D4C440-D7F1-4ACF-8FBF-3F0C6760D046}">
+  <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2965,7 +2994,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2983,22 +3012,23 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BF876-64BD-4806-8DF0-EDD78541B5B5}">
+  <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3015,7 +3045,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3038,31 +3068,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756713C7-96E5-4F00-A754-34B10EE29C96}">
+  <sheetPr codeName="Sheet26"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192DF110-3ABA-471B-A1D5-F18268922FCE}">
+  <sheetPr codeName="Sheet27"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3175,35 +3290,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F39C5-70E7-4C54-AA28-EBEFD8F5C6A1}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3262,7 +3378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3329,24 +3445,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E293321F-B061-4F7A-B202-F3CBF5A4C696}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3375,7 +3492,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3412,23 +3529,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD2387F-1FF1-4CEF-8161-5D26F4934D72}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3490,7 +3608,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -3566,19 +3684,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59097C4B-6171-41FB-8643-CE1C2531D49B}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3586,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3601,36 +3720,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FC93F-C256-4807-8DC3-4FBEBA2B7A4F}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3713,7 +3833,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3803,40 +3923,41 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3964,7 +4085,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KSIDC\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EB9B7-D25B-4AB4-9730-881730D250F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A73EFD5-909D-4F95-8E9E-8826610A0684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="26" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
     <sheet name="KSIDC_MeansOfFinance" sheetId="37" r:id="rId26"/>
     <sheet name="KSIDC_SecurityLand" sheetId="38" r:id="rId27"/>
+    <sheet name="KSIDC_SecurityVehicle" sheetId="39" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="418">
   <si>
     <t>Yes</t>
   </si>
@@ -1302,6 +1303,9 @@
   </si>
   <si>
     <t>SecurityLandModule</t>
+  </si>
+  <si>
+    <t>SecurityVehicleModule</t>
   </si>
 </sst>
 </file>
@@ -3155,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6432D31-EA2A-4778-92B9-58B3DD2450E3}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,6 +3189,47 @@
       </c>
       <c r="B2" t="s">
         <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF15593D-2C6B-43B1-A740-ED0A60E67282}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilesh.bhoir\Documents\GitHub\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC0AA9-D577-45E1-8DBB-239D7F224BE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673858B2-5794-43EA-AC4C-8B40CE7F74DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11028" windowHeight="3840" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="3840" firstSheet="25" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
     <sheet name="KSIDC_Sec_Misc_Fixed_Asset" sheetId="37" r:id="rId26"/>
     <sheet name="KSIDC_Sec_Corporate_Gaurantee" sheetId="38" r:id="rId27"/>
+    <sheet name="KSIDC_Personal_Guarantee" sheetId="39" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="412">
   <si>
     <t>Yes</t>
   </si>
@@ -1283,7 +1284,10 @@
     <t>Seurity_Misc_Fixed_Asset_Module</t>
   </si>
   <si>
-    <t>Seurity_Corporate_Gaurantee_Module</t>
+    <t>Securityt_Personal_Guarantee_Module</t>
+  </si>
+  <si>
+    <t>Security_Corporate_Guarantee_Module</t>
   </si>
 </sst>
 </file>
@@ -1704,25 +1708,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="19" width="21.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" customWidth="1"/>
+    <col min="18" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1764,7 +1768,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1826,14 +1830,14 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1875,13 +1879,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1911,14 +1915,14 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="19"/>
-    <col min="2" max="2" width="37.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="24.6640625" style="19"/>
+    <col min="1" max="1" width="24.7109375" style="19"/>
+    <col min="2" max="2" width="37.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="24.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2056,26 +2060,26 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="20"/>
+    <col min="9" max="9" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2177,12 +2181,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2212,20 +2216,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2297,18 +2301,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2404,21 +2408,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2520,14 +2524,14 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2563,16 +2567,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2627,14 +2631,14 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2681,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2729,13 +2733,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2750,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2771,13 +2775,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2813,20 +2817,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2934,13 +2938,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2976,14 +2980,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3019,16 +3023,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3077,13 +3081,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3116,16 +3120,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3136,7 +3140,48 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18880A2-7498-4DBB-A86E-5C4CA8052559}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3161,23 +3206,23 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3230,7 +3275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3297,29 +3342,29 @@
       <selection activeCell="O1" sqref="O1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3378,7 +3423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3452,18 +3497,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3492,7 +3537,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3536,17 +3581,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3608,7 +3653,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3670,7 +3715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -3691,13 +3736,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3727,30 +3772,30 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3833,7 +3878,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3930,34 +3975,34 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4085,7 +4130,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilesh.bhoir\Documents\GitHub\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673858B2-5794-43EA-AC4C-8B40CE7F74DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61637B-619E-4DC6-BBF2-13D2B61655D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="3840" firstSheet="25" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11028" windowHeight="3840" firstSheet="26" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="KSIDC_Sec_Misc_Fixed_Asset" sheetId="37" r:id="rId26"/>
     <sheet name="KSIDC_Sec_Corporate_Gaurantee" sheetId="38" r:id="rId27"/>
     <sheet name="KSIDC_Personal_Guarantee" sheetId="39" r:id="rId28"/>
+    <sheet name="KSIDC_Security_Summary" sheetId="40" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="413">
   <si>
     <t>Yes</t>
   </si>
@@ -1284,10 +1285,13 @@
     <t>Seurity_Misc_Fixed_Asset_Module</t>
   </si>
   <si>
-    <t>Securityt_Personal_Guarantee_Module</t>
-  </si>
-  <si>
     <t>Security_Corporate_Guarantee_Module</t>
+  </si>
+  <si>
+    <t>Security_Personal_Guarantee_Module</t>
+  </si>
+  <si>
+    <t>Security_Summary_Module</t>
   </si>
 </sst>
 </file>
@@ -1708,25 +1712,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="18" max="19" width="21.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1772,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1830,14 +1834,14 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1879,13 +1883,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1915,14 +1919,14 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="19"/>
-    <col min="2" max="2" width="37.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="24.7109375" style="19"/>
+    <col min="1" max="1" width="24.6640625" style="19"/>
+    <col min="2" max="2" width="37.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="24.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2060,26 +2064,26 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="20"/>
+    <col min="9" max="9" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2181,12 +2185,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2216,20 +2220,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2301,18 +2305,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2408,21 +2412,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2524,14 +2528,14 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2567,16 +2571,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2631,14 +2635,14 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2681,7 +2685,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2733,13 +2737,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2775,13 +2779,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2817,20 +2821,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2938,13 +2942,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2980,14 +2984,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3023,16 +3027,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3081,13 +3085,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3119,17 +3123,17 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3140,12 +3144,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>371</v>
@@ -3161,16 +3165,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3181,12 +3185,53 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8365356-87E4-43A3-A16A-0AF790EEF51C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>371</v>
@@ -3206,23 +3251,23 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3275,7 +3320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3342,29 +3387,29 @@
       <selection activeCell="O1" sqref="O1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3423,7 +3468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3497,18 +3542,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3581,17 +3626,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3653,7 +3698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3715,7 +3760,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -3736,13 +3781,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3772,30 +3817,30 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3878,7 +3923,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3975,34 +4020,34 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4130,7 +4175,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KSIDC\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A73EFD5-909D-4F95-8E9E-8826610A0684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FDBCDA-33BB-402C-99E5-BBAA899967F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="26" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -39,8 +39,9 @@
     <sheet name="KSIDC_Preliminary_Expense" sheetId="35" r:id="rId24"/>
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
     <sheet name="KSIDC_MeansOfFinance" sheetId="37" r:id="rId26"/>
-    <sheet name="KSIDC_SecurityLand" sheetId="38" r:id="rId27"/>
-    <sheet name="KSIDC_SecurityVehicle" sheetId="39" r:id="rId28"/>
+    <sheet name="KSIDC_CollateralSecurity" sheetId="40" r:id="rId27"/>
+    <sheet name="KSIDC_SecurityLand" sheetId="38" r:id="rId28"/>
+    <sheet name="KSIDC_SecurityVehicle" sheetId="39" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="429">
   <si>
     <t>Yes</t>
   </si>
@@ -1306,6 +1307,39 @@
   </si>
   <si>
     <t>SecurityVehicleModule</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AadhaarNo</t>
+  </si>
+  <si>
+    <t>CostOfLandAsPerDocument</t>
+  </si>
+  <si>
+    <t>Collateral_Security</t>
+  </si>
+  <si>
+    <t>Silpa</t>
+  </si>
+  <si>
+    <t>Poovathingal</t>
+  </si>
+  <si>
+    <t>Thiroor</t>
+  </si>
+  <si>
+    <t>Kolazhy</t>
+  </si>
+  <si>
+    <t>Thrissur</t>
+  </si>
+  <si>
+    <t>ExtentOfLandWet</t>
+  </si>
+  <si>
+    <t>ExtentOfLandDRY</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1438,6 +1472,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3156,6 +3193,131 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFC4CED-5D2D-4392-B440-D2B8F4C903F7}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="25">
+        <v>676732349737</v>
+      </c>
+      <c r="F2">
+        <v>765434556</v>
+      </c>
+      <c r="G2">
+        <v>7643545</v>
+      </c>
+      <c r="H2">
+        <v>26977</v>
+      </c>
+      <c r="I2">
+        <v>5455</v>
+      </c>
+      <c r="J2">
+        <v>765443</v>
+      </c>
+      <c r="K2">
+        <v>680581</v>
+      </c>
+      <c r="L2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" t="s">
+        <v>425</v>
+      </c>
+      <c r="N2" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2">
+        <v>65445534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6432D31-EA2A-4778-92B9-58B3DD2450E3}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3196,11 +3358,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF15593D-2C6B-43B1-A740-ED0A60E67282}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilesh.bhoir\Documents\GitHub\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61637B-619E-4DC6-BBF2-13D2B61655D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35463D-949E-4448-A629-969FA85D7E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11028" windowHeight="3840" firstSheet="26" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11028" windowHeight="3840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -3205,9 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8365356-87E4-43A3-A16A-0AF790EEF51C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3777,8 +3775,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilesh.bhoir\Documents\GitHub\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrilesha.shelke\git\repository3\KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35463D-949E-4448-A629-969FA85D7E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F473721-8EFC-4103-85A6-E8BBD66B7E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11028" windowHeight="3840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -27,23 +27,10 @@
     <sheet name="KSIDC_Business_Enterpreneur" sheetId="22" r:id="rId12"/>
     <sheet name="KSIDC_Business_Entity" sheetId="23" r:id="rId13"/>
     <sheet name="KSIDC_Entity_Doc_Upload" sheetId="25" r:id="rId14"/>
-    <sheet name="KSIDC_Project_Cost_Verification" sheetId="26" r:id="rId15"/>
-    <sheet name="KSIDC_Plant_And_Machinery" sheetId="27" r:id="rId16"/>
-    <sheet name="KSIDC_Land" sheetId="28" r:id="rId17"/>
-    <sheet name="KSIDC_Land_Development" sheetId="29" r:id="rId18"/>
-    <sheet name="KSIDC_Building_CivilWork" sheetId="30" r:id="rId19"/>
-    <sheet name="KSIDC_Utilities" sheetId="31" r:id="rId20"/>
-    <sheet name="KSIDC_Misc_Fixed_Asset" sheetId="32" r:id="rId21"/>
-    <sheet name="KSIDC_Vehicle" sheetId="33" r:id="rId22"/>
-    <sheet name="KSIDC_Deposit" sheetId="34" r:id="rId23"/>
-    <sheet name="KSIDC_Preliminary_Expense" sheetId="35" r:id="rId24"/>
-    <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
-    <sheet name="KSIDC_Sec_Misc_Fixed_Asset" sheetId="37" r:id="rId26"/>
-    <sheet name="KSIDC_Sec_Corporate_Gaurantee" sheetId="38" r:id="rId27"/>
-    <sheet name="KSIDC_Personal_Guarantee" sheetId="39" r:id="rId28"/>
-    <sheet name="KSIDC_Security_Summary" sheetId="40" r:id="rId29"/>
+    <sheet name="KSIDC_Means_Of_Finance" sheetId="26" r:id="rId15"/>
+    <sheet name="KSIDC_Security_Plant_Machinery" sheetId="27" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="314">
   <si>
     <t>Yes</t>
   </si>
@@ -811,6 +798,9 @@
     <t>HUYTG5656A</t>
   </si>
   <si>
+    <t>RFOOY6578I</t>
+  </si>
+  <si>
     <t>Business_Entrepreneur_Details_Module</t>
   </si>
   <si>
@@ -973,325 +963,25 @@
     <t>ASJRT6677L</t>
   </si>
   <si>
-    <t>Project_Cost_Verification_Module</t>
-  </si>
-  <si>
-    <t>422347</t>
-  </si>
-  <si>
-    <t>242235</t>
-  </si>
-  <si>
-    <t>3765433</t>
-  </si>
-  <si>
-    <t>76543</t>
-  </si>
-  <si>
-    <t>2345678</t>
-  </si>
-  <si>
-    <t>7786786</t>
-  </si>
-  <si>
-    <t>CRFT6YHCFTRH6YUCGBTR6Y</t>
-  </si>
-  <si>
-    <t>Plant_And_Machinery_Module</t>
-  </si>
-  <si>
-    <t>MachineryName</t>
-  </si>
-  <si>
-    <t>BHDBG463</t>
-  </si>
-  <si>
-    <t>MachineryManufactureName</t>
-  </si>
-  <si>
-    <t>HXZYE6TR4</t>
-  </si>
-  <si>
-    <t>ExchangeRate</t>
-  </si>
-  <si>
-    <t>45678</t>
-  </si>
-  <si>
-    <t>MachineryBaseCost</t>
-  </si>
-  <si>
-    <t>TransportationCost</t>
-  </si>
-  <si>
-    <t>9987654</t>
-  </si>
-  <si>
-    <t>InstallationCost</t>
-  </si>
-  <si>
-    <t>MachineryBCD</t>
-  </si>
-  <si>
-    <t>5567</t>
-  </si>
-  <si>
-    <t>MachinerySWS</t>
-  </si>
-  <si>
-    <t>3456</t>
-  </si>
-  <si>
-    <t>CIF</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>MachineryCount</t>
-  </si>
-  <si>
-    <t>52782</t>
-  </si>
-  <si>
-    <t>AssetTaxRate</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Land_Module</t>
-  </si>
-  <si>
-    <t>TitleHolder</t>
-  </si>
-  <si>
-    <t>Land123</t>
-  </si>
-  <si>
-    <t>DocNo</t>
-  </si>
-  <si>
-    <t>D4343</t>
-  </si>
-  <si>
-    <t>SurveyNo</t>
-  </si>
-  <si>
-    <t>HJU8989</t>
-  </si>
-  <si>
-    <t>ResurveyNo</t>
-  </si>
-  <si>
-    <t>WTR544</t>
-  </si>
-  <si>
-    <t>ExtendOfLandDRY</t>
-  </si>
-  <si>
-    <t>ExtendOfLand</t>
-  </si>
-  <si>
-    <t>3345</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>NBDY</t>
-  </si>
-  <si>
-    <t>YWEGFU</t>
-  </si>
-  <si>
-    <t>Taluk</t>
-  </si>
-  <si>
-    <t>EUFYGE</t>
-  </si>
-  <si>
-    <t>CostOfLandIncludingRegistration</t>
-  </si>
-  <si>
-    <t>RegistrationAmount</t>
-  </si>
-  <si>
-    <t>4454</t>
-  </si>
-  <si>
-    <t>457678</t>
-  </si>
-  <si>
-    <t>Land_Development_Module</t>
-  </si>
-  <si>
-    <t>EstimatedCost</t>
-  </si>
-  <si>
-    <t>456799</t>
-  </si>
-  <si>
-    <t>BuildingArea</t>
-  </si>
-  <si>
-    <t>Building_Civil_Work_Module</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>CostForTheBuilding</t>
-  </si>
-  <si>
-    <t>66843221</t>
-  </si>
-  <si>
-    <t>ArchitectOrEngineersName</t>
-  </si>
-  <si>
-    <t>FTY756HH</t>
-  </si>
-  <si>
-    <t>BuildingAge</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Utilities_Module</t>
-  </si>
-  <si>
-    <t>CostForUtilityIncludingGST</t>
-  </si>
-  <si>
-    <t>Misc_Fixed_Asset_Module</t>
-  </si>
-  <si>
-    <t>345123456</t>
-  </si>
-  <si>
-    <t>RFAZY6578I</t>
-  </si>
-  <si>
-    <t>VehicleModel</t>
-  </si>
-  <si>
-    <t>Vehicle_Details_Module</t>
-  </si>
-  <si>
-    <t>FTYHJF676</t>
-  </si>
-  <si>
-    <t>VehicleColour</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>ExShowRoomPrice</t>
-  </si>
-  <si>
-    <t>OnRoadPrice</t>
-  </si>
-  <si>
-    <t>56783333</t>
-  </si>
-  <si>
-    <t>VehicleNumber</t>
-  </si>
-  <si>
-    <t>SDFG5678</t>
-  </si>
-  <si>
-    <t>EngineNumber</t>
-  </si>
-  <si>
-    <t>SDF3456</t>
-  </si>
-  <si>
-    <t>ChaseNumber</t>
-  </si>
-  <si>
-    <t>xcv5678</t>
-  </si>
-  <si>
-    <t>RegistrationDate</t>
-  </si>
-  <si>
-    <t>02/01/2025</t>
-  </si>
-  <si>
-    <t>InsuranceAmount</t>
-  </si>
-  <si>
-    <t>RoadTax</t>
-  </si>
-  <si>
-    <t>2343</t>
-  </si>
-  <si>
-    <t>RegistrationAndOtherCharges</t>
-  </si>
-  <si>
-    <t>8345</t>
-  </si>
-  <si>
-    <t>DealerDiscount</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>DownPayment</t>
-  </si>
-  <si>
-    <t>Deposit_Details_Module</t>
-  </si>
-  <si>
-    <t>DepositAmount</t>
-  </si>
-  <si>
-    <t>Preliminary_Expense_Module</t>
-  </si>
-  <si>
-    <t>ExpenseAmount</t>
-  </si>
-  <si>
-    <t>345678123</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>Technical_Know_Module</t>
-  </si>
-  <si>
-    <t>ServiceProvider</t>
-  </si>
-  <si>
-    <t>FeeAmount</t>
-  </si>
-  <si>
-    <t>DCCRT</t>
-  </si>
-  <si>
-    <t>CRTG</t>
-  </si>
-  <si>
-    <t>45455454545</t>
-  </si>
-  <si>
-    <t>Seurity_Misc_Fixed_Asset_Module</t>
-  </si>
-  <si>
-    <t>Security_Corporate_Guarantee_Module</t>
-  </si>
-  <si>
-    <t>Security_Personal_Guarantee_Module</t>
-  </si>
-  <si>
-    <t>Security_Summary_Module</t>
+    <t>Means_Of_Finance_Module</t>
+  </si>
+  <si>
+    <t>ShareCapital</t>
+  </si>
+  <si>
+    <t>InternalAccurals</t>
+  </si>
+  <si>
+    <t>UnsecuredLoan</t>
+  </si>
+  <si>
+    <t>IncentivesAndGrants</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Security_Plant_Machinary_Module</t>
   </si>
 </sst>
 </file>
@@ -1705,32 +1395,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="19" width="21.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" customWidth="1"/>
+    <col min="18" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1461,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1475,7 @@
         <v>219</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>221</v>
@@ -1827,21 +1516,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2BB0E3-9FDC-4B4D-9E0E-0DB6DA317FF1}">
-  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1543,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1876,20 +1564,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12827041-A52E-468B-AD86-20B2ADBCD9C3}">
-  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1897,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1912,21 +1599,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2187721E-EFDD-4C59-865E-7B943CCAEF0D}">
-  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="19"/>
-    <col min="2" max="2" width="37.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="24.6640625" style="19"/>
+    <col min="1" max="1" width="24.7109375" style="19"/>
+    <col min="2" max="2" width="37.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="24.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -1934,105 +1620,105 @@
         <v>2</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>104</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>105</v>
@@ -2041,13 +1727,13 @@
         <v>105</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2057,33 +1743,32 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F362471-D3AF-47F3-A1C6-AF8CA345A37A}">
-  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="20"/>
+    <col min="9" max="9" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2091,84 +1776,84 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>104</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2178,19 +1863,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A48D9-FED2-4659-804C-0C664D02ECF8}">
-  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2198,12 +1882,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2212,83 +1896,68 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E387B-16B5-4B2C-B3E6-F89934697231}">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16081E56-B051-43E1-AE85-00EA28BED748}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="C1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>313</v>
+      <c r="D2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2297,105 +1966,32 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF47683-81D4-40DA-8749-2DDB555E09D3}">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45E8E94-5077-47FF-9330-E51542FFD54F}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G2" s="11">
-        <v>7534567</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2403,246 +1999,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9068FB7D-9485-4BB9-8F30-8E11F043A2B0}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C74131-73DF-4DE0-A3B4-23C54BFA5F1E}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8D6206-0289-4B0C-A3C9-430C7BE6F86C}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2685,7 +2057,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2721,518 +2093,6 @@
       </c>
       <c r="L2" s="8" t="s">
         <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0DFA61-7353-4BE0-98A0-74D687B97FF5}">
-  <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD1B903-DBD5-4217-84A3-431290C839D2}">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F066CCA4-AF30-4DBE-B9D7-BBF982E6100C}">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EC0D90-88B6-443D-BE13-748436BBDE73}">
-  <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D4C440-D7F1-4ACF-8FBF-3F0C6760D046}">
-  <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BF876-64BD-4806-8DF0-EDD78541B5B5}">
-  <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756713C7-96E5-4F00-A754-34B10EE29C96}">
-  <sheetPr codeName="Sheet26"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192DF110-3ABA-471B-A1D5-F18268922FCE}">
-  <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18880A2-7498-4DBB-A86E-5C4CA8052559}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8365356-87E4-43A3-A16A-0AF790EEF51C}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3242,30 +2102,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3318,7 +2177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3378,36 +2237,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F39C5-70E7-4C54-AA28-EBEFD8F5C6A1}">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3466,7 +2324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3533,25 +2391,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E293321F-B061-4F7A-B202-F3CBF5A4C696}">
-  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3580,7 +2437,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3617,24 +2474,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD2387F-1FF1-4CEF-8161-5D26F4934D72}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3696,7 +2552,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +2614,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -3772,20 +2628,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59097C4B-6171-41FB-8643-CE1C2531D49B}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +2648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3808,37 +2663,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814FC93F-C256-4807-8DC3-4FBEBA2B7A4F}">
-  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3921,7 +2775,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +2786,7 @@
         <v>152</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>164</v>
@@ -4011,41 +2865,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
-  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4173,7 +3026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4181,7 +3034,7 @@
         <v>198</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>200</v>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrilesha.shelke\git\repository3\KSIDC_CustomerPortal\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F473721-8EFC-4103-85A6-E8BBD66B7E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CA779-91FE-410F-A4FA-8F661550DB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <sheet name="KSIDC_Entity_Doc_Upload" sheetId="25" r:id="rId14"/>
     <sheet name="KSIDC_Means_Of_Finance" sheetId="26" r:id="rId15"/>
     <sheet name="KSIDC_Security_Plant_Machinery" sheetId="27" r:id="rId16"/>
+    <sheet name="KSIDC_Security_Land_Development" sheetId="28" r:id="rId17"/>
+    <sheet name="KSIDC_Sec_Building_Civil_Work" sheetId="29" r:id="rId18"/>
+    <sheet name="KSIDC_Utilities" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="317">
   <si>
     <t>Yes</t>
   </si>
@@ -982,6 +985,15 @@
   </si>
   <si>
     <t>Security_Plant_Machinary_Module</t>
+  </si>
+  <si>
+    <t>Security_Land_Development_Module</t>
+  </si>
+  <si>
+    <t>Security_Building_Civil_Work_Module</t>
+  </si>
+  <si>
+    <t>Security_Utilities_Module</t>
   </si>
 </sst>
 </file>
@@ -1969,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45E8E94-5077-47FF-9330-E51542FFD54F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,6 +2004,108 @@
       </c>
       <c r="B2" t="s">
         <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A6CB30-3F50-47C1-AF0D-F1D0C3CFD818}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C031E-2137-4A80-B6BE-5A568BAA49FA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9246B31E-A03A-4E46-B276-B46C856B05E8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KSIDC\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FDBCDA-33BB-402C-99E5-BBAA899967F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80AEFF-9E81-4F04-B53C-BCB96E8F44C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="428">
   <si>
     <t>Yes</t>
   </si>
@@ -1330,16 +1330,13 @@
     <t>Thiroor</t>
   </si>
   <si>
-    <t>Kolazhy</t>
-  </si>
-  <si>
-    <t>Thrissur</t>
-  </si>
-  <si>
     <t>ExtentOfLandWet</t>
   </si>
   <si>
     <t>ExtentOfLandDRY</t>
+  </si>
+  <si>
+    <t>Kannur</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,6 +1378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1475,6 +1478,7 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3194,10 +3198,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFC4CED-5D2D-4392-B440-D2B8F4C903F7}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,9 +3219,12 @@
     <col min="12" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3243,10 +3250,10 @@
         <v>342</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>122</v>
@@ -3263,8 +3270,17 @@
       <c r="O1" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3294,7 @@
         <v>423</v>
       </c>
       <c r="E2" s="25">
-        <v>676732349737</v>
+        <v>333333333333</v>
       </c>
       <c r="F2">
         <v>765434556</v>
@@ -3296,19 +3312,28 @@
         <v>765443</v>
       </c>
       <c r="K2">
-        <v>680581</v>
+        <v>123456</v>
       </c>
       <c r="L2" t="s">
         <v>424</v>
       </c>
       <c r="M2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O2">
         <v>65445534</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>2500</v>
+      </c>
+      <c r="R2">
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KSIDC\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80AEFF-9E81-4F04-B53C-BCB96E8F44C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A40667-888F-48E2-912E-4236C8AB51D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="24" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -40,8 +40,9 @@
     <sheet name="KSIDC_Technical_Know" sheetId="36" r:id="rId25"/>
     <sheet name="KSIDC_MeansOfFinance" sheetId="37" r:id="rId26"/>
     <sheet name="KSIDC_CollateralSecurity" sheetId="40" r:id="rId27"/>
-    <sheet name="KSIDC_SecurityLand" sheetId="38" r:id="rId28"/>
-    <sheet name="KSIDC_SecurityVehicle" sheetId="39" r:id="rId29"/>
+    <sheet name="KSIDC-BankProfile" sheetId="41" r:id="rId28"/>
+    <sheet name="KSIDC_SecurityLand" sheetId="38" r:id="rId29"/>
+    <sheet name="KSIDC_SecurityVehicle" sheetId="39" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="436">
   <si>
     <t>Yes</t>
   </si>
@@ -1337,6 +1338,30 @@
   </si>
   <si>
     <t>Kannur</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>BranchName</t>
+  </si>
+  <si>
+    <t>AccountHolderName</t>
+  </si>
+  <si>
+    <t>Bank Profile</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>SBIN0000007</t>
+  </si>
+  <si>
+    <t>555555555555555</t>
+  </si>
+  <si>
+    <t>ReTypeAccountNumber</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1479,6 +1504,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3200,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFC4CED-5D2D-4392-B440-D2B8F4C903F7}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,6 +3369,82 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979E7273-C3F4-44F2-A3CC-1E3610BF912F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6432D31-EA2A-4778-92B9-58B3DD2450E3}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3376,47 +3478,6 @@
       </c>
       <c r="B2" t="s">
         <v>416</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF15593D-2C6B-43B1-A740-ED0A60E67282}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3552,6 +3613,47 @@
       </c>
       <c r="Q2" s="11" t="s">
         <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF15593D-2C6B-43B1-A740-ED0A60E67282}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
